--- a/TestData/logindata.xlsx
+++ b/TestData/logindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sysforetech-my.sharepoint.com/personal/mahalakshmi_vs_sysfore_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{45427BD1-079C-48B3-8E91-4112BFA410E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42521BBA-9CD6-43D8-9022-379C4347EB4F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{45427BD1-079C-48B3-8E91-4112BFA410E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78611382-0F72-42DA-AE54-8A7EAF7623F1}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3336" windowWidth="17280" windowHeight="8904" xr2:uid="{EB061A6B-3404-46E4-85FB-FC352C61BB64}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8904" xr2:uid="{EB061A6B-3404-46E4-85FB-FC352C61BB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Password</t>
   </si>
@@ -50,7 +50,22 @@
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>locked_out_user</t>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>problem_uer</t>
+  </si>
+  <si>
+    <t>scret_sauce</t>
+  </si>
+  <si>
+    <t>performance_glitch_us</t>
+  </si>
+  <si>
+    <t>secr</t>
   </si>
   <si>
     <t>error_user</t>
@@ -59,32 +74,23 @@
     <t>visual_user</t>
   </si>
   <si>
-    <t>problem_uer</t>
-  </si>
-  <si>
-    <t>scret_sauce</t>
-  </si>
-  <si>
-    <t>performance_glitch_us</t>
-  </si>
-  <si>
-    <t>secr</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>vaild</t>
-  </si>
-  <si>
-    <t>invalid</t>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>locked_out_</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>secret_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +111,27 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,10 +155,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,7 +500,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,79 +533,86 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Dell@e5400" xr:uid="{662D2EF7-620D-4BCF-AACC-BC1320972046}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Dell@e5400" xr:uid="{38291F35-AC6B-4337-ADDF-2F4FA7CFB951}"/>
-    <hyperlink ref="B4:B6" r:id="rId3" display="Dell@e5400" xr:uid="{4DE27ABD-AE8D-4141-A043-E2EC25FF7D6B}"/>
-    <hyperlink ref="B8" r:id="rId4" display="Dell@e5400" xr:uid="{3795315D-92F0-432A-A669-CFBF1E923575}"/>
+    <hyperlink ref="B3" r:id="rId2" display="mailto:Dell@e5400" xr:uid="{2109497B-D32A-426F-BA0A-D1100490A0DE}"/>
+    <hyperlink ref="B4" r:id="rId3" display="mailto:Dell@e5400" xr:uid="{0ADD4F21-AE36-4775-992B-FD8BE121C31D}"/>
+    <hyperlink ref="B5" r:id="rId4" display="mailto:Dell@e5400" xr:uid="{2144A2CD-FC6D-4A47-911C-6905BCBCB1E3}"/>
+    <hyperlink ref="B6" r:id="rId5" display="mailto:Dell@e5400" xr:uid="{F1A38300-CFCF-49B1-9BFA-BD2D37EBD5D7}"/>
+    <hyperlink ref="B8" r:id="rId6" display="mailto:Dell@e5400" xr:uid="{FDC42F62-49F0-46B2-9C3E-CF1C7E83AF72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
